--- a/TuVung/Lesson25/tuvung.xlsx
+++ b/TuVung/Lesson25/tuvung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E36EC8-3934-4AC9-BF60-0F6574A6A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C210F-D06D-4C57-A59C-190149EFA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>写真を取る  </t>
   </si>
   <si>
-    <t>作文をなおす </t>
-  </si>
-  <si>
     <t>タバコを止める</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>理由</t>
+  </si>
+  <si>
+    <t>作文を直す </t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -806,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -894,7 +894,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
@@ -982,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>

--- a/TuVung/Lesson25/tuvung.xlsx
+++ b/TuVung/Lesson25/tuvung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\TuVung\Lesson25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C210F-D06D-4C57-A59C-190149EFA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C326E-1705-4E38-BE9B-3B801BBE5F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="2820" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>漢字を覚える </t>
   </si>
   <si>
-    <t>友だち に/と 相談する</t>
-  </si>
-  <si>
     <t>部屋を掃除する </t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>作文を直す </t>
+  </si>
+  <si>
+    <t>友だちと相談する</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -894,7 +894,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
@@ -982,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
